--- a/ontology/mcode_structure.xlsx
+++ b/ontology/mcode_structure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongtonghuang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongtonghuang/Documents/GitHub/mCodeGPT/ontology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C26396-A4FD-E04F-92D9-220E371911DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1775A011-EB1C-5842-9AB6-6778420CA6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="760" windowWidth="27480" windowHeight="15240" xr2:uid="{0015E88C-EFC2-4B52-ADE6-6746027C26F6}"/>
+    <workbookView xWindow="1020" yWindow="-20260" windowWidth="27480" windowHeight="15240" activeTab="2" xr2:uid="{0015E88C-EFC2-4B52-ADE6-6746027C26F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ontology" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="173">
   <si>
     <t>Cancer patient</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Comorbidities</t>
   </si>
   <si>
-    <t>Genomic report</t>
-  </si>
-  <si>
-    <t>Remonic Variant</t>
-  </si>
-  <si>
     <t>Genomic Region Studied</t>
   </si>
   <si>
@@ -83,18 +77,6 @@
     <t>Genomic Variant</t>
   </si>
   <si>
-    <t>Tumor Size Mesurement Method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancer-Related Medication Request</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancer-Related Procedure</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Tumor Body Location</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -167,38 +149,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Cancer-Related Medication Request Reason</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancer-Related Medication Request Procedure Intent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancer-Related Medication Administration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancer-Related Medication Administration Reason</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancer-Related Medication Administration Procedure Intent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancer-Related Medication Administration Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancer-Related Procedure Procedure Code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancer-Related Procedure Body Site</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Radiotherapy Course Summary</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -239,10 +189,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Cancer  Leukemia Rai Stage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Cancer Gynecologic FIGO Stage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -260,10 +206,6 @@
   </si>
   <si>
     <t>Cancer Myeloma ISS Stage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancer  Myeloma RISS Stage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -426,10 +368,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>What is the Tumor Size Mesurement Method?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Is there any information about Primary Cancer Condition mentioned in the notes? Answer YES or NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -450,10 +388,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>What is the Cancer  Leukemia Rai Stage?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>What is the Cancer Gynecologic FIGO Stage?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -471,10 +405,6 @@
   </si>
   <si>
     <t>What is the Cancer Myeloma ISS Stage?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is the Cancer  Myeloma RISS Stage?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -498,58 +428,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Is there any information about Cancer-Related Medication Request? Answer YES or NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is the Cancer-Related Medication Request?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is the Cancer-Related Medication Request Reason?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is the Cancer-Related Medication Request Procedure Intent?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is the Cancer-Related Medication Request Satus?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is there any information about Cancer-Related Medication Administration? Answer YES or NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is the Cancer-Related Medication Administration?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is the Cancer-Related Medication Administration Reason?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is the Cancer-Related Medication Administration Procedure Intent?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is the Cancer-Related Medication Administration Status?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is there any information about Cancer-Related Procedure? Answer YES or NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is the Cancer-Related Procedure Procedure Code?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is the Cancer-Related Procedure Body Site?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Is there any information about Radiotherapy Course Summary? Answer YES or NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -578,18 +456,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Is there any information about Genomic report? Answer YES or NO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is the Remonic Variant?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is the Genomic Region Studied?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Is there any information about Genomic Variant? Answer YES or NO</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -726,10 +592,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Does the clinical notes contain any Tumor Size Mesurement Method of the patient? Answer YES or NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Does the clinical notes contain any Cancer Stage Type of the patient? Answer YES or NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -742,10 +604,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Does the clinical notes contain any Cancer  Leukemia Rai Stage of the patient? Answer YES or NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Does the clinical notes contain any Cancer Gynecologic FIGO Stage of the patient? Answer YES or NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -766,10 +624,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Does the clinical notes contain any Cancer  Myeloma RISS Stage of the patient? Answer YES or NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Does the clinical notes contain any Cancer Prostate Gleason Stage of the patient? Answer YES or NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -786,46 +640,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Does the clinical notes contain any Cancer-Related Medication Request of the patient? Answer YES or NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Does the clinical notes contain any Cancer-Related Medication Request Reason of the patient? Answer YES or NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Does the clinical notes contain any Cancer-Related Medication Request Procedure Intent of the patient? Answer YES or NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Does the clinical notes contain any Cancer-Related Medication Request Satus of the patient? Answer YES or NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Does the clinical notes contain any Cancer-Related Medication Administration of the patient? Answer YES or NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Does the clinical notes contain any Cancer-Related Medication Administration Reason of the patient? Answer YES or NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Does the clinical notes contain any Cancer-Related Medication Administration Procedure Intent of the patient? Answer YES or NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Does the clinical notes contain any Cancer-Related Medication Administration Status of the patient? Answer YES or NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Does the clinical notes contain any Cancer-Related Procedure Procedure Code of the patient? Answer YES or NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Does the clinical notes contain any Cancer-Related Procedure Body Site of the patient? Answer YES or NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Does the clinical notes contain any Radiotherapy Number of Sessions of the patient? Answer YES or NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -844,14 +658,6 @@
   <si>
     <t>Does the clinical notes contain any  Patient Comorbidities Diagnosis Risk Score of the patient? Answer YES or NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Does the clinical notes contain any Remonic Variant of the patient? Answer YES or NO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Does the clinical notes contain any Genomic Region Studied of the patient? Answer YES or NO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Does the clinical notes contain any Studied Genomic Region of the patient? Answer YES or NO</t>
@@ -904,15 +710,6 @@
   <si>
     <t>Does the clinical notes contain any Genomic Region Reference Sequence? Answer YES or NO</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancer-Related Medication Request</t>
-  </si>
-  <si>
-    <t>Cancer-Related Medication Administration</t>
-  </si>
-  <si>
-    <t>Cancer-Related Medication Request Status</t>
   </si>
   <si>
     <t>Genomic Region Studied Gene Mutations</t>
@@ -922,7 +719,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,14 +747,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1078,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1107,27 +896,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1143,28 +911,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1487,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3214E81-3B1F-4D6E-A390-A29A7543EC3B}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView topLeftCell="A31" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1506,155 +1268,155 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="29" t="s">
-        <v>30</v>
+      <c r="A11" s="17"/>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1663,413 +1425,281 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="17" t="s">
-        <v>19</v>
+      <c r="A20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="3"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="17"/>
+      <c r="B37" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="17"/>
+      <c r="B39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="5" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="5" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="5" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="17"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="27" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="5" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="17"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="5" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="17"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="5" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="17"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="5" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="17"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="5" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="17"/>
+      <c r="B48" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="17"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="27" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="17"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="5" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="17"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
-      <c r="B50" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
-      <c r="B63" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="11">
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A2:A51"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B23:B34"/>
-    <mergeCell ref="C23:C33"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B54:B62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="A2:A66"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="C22:C30"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2078,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077E4048-6611-4D7C-AC64-7C0B17634774}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A66"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2093,583 +1723,451 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>78</v>
+      <c r="A2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="4" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="20" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="17" t="s">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="4" t="s">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="19" t="s">
+      <c r="C34" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="5" t="s">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="17"/>
+      <c r="B37" s="19" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="5" t="s">
+      <c r="C37" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="5" t="s">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="5" t="s">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="17"/>
+      <c r="B39" s="15" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="5" t="s">
+      <c r="C39" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="5" t="s">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="5" t="s">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="5" t="s">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="17"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="5" t="s">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="5" t="s">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="17"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="5" t="s">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="17"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="19" t="s">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="17"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="17"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="5" t="s">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="17"/>
+      <c r="B48" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13" t="s">
+      <c r="C48" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="17"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="6" t="s">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="17"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="6" t="s">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="17"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
-      <c r="B50" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
-      <c r="B63" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D66" s="1"/>
+      <c r="D51" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A2:A66"/>
+  <mergeCells count="11">
+    <mergeCell ref="A2:A51"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B23:B34"/>
-    <mergeCell ref="C23:C33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B62"/>
-    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="C22:C30"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="B48:B51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2678,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC910155-11D5-45E0-ADE7-76B2C63F1A80}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2695,540 +2193,416 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="2" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="2" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="2" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="2" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="2" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="2" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="2" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="2" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="4" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="4" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="17" t="s">
-        <v>175</v>
+      <c r="A20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="3"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="5" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="5" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="5" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="5" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="5" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="5" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="5" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="5" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="5" t="s">
-        <v>185</v>
-      </c>
+      <c r="A31" s="17"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="5" t="s">
-        <v>186</v>
-      </c>
+      <c r="A32" s="17"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="5" t="s">
-        <v>187</v>
-      </c>
+      <c r="A33" s="17"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="5" t="s">
-        <v>188</v>
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="5" t="s">
-        <v>189</v>
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="5" t="s">
-        <v>190</v>
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="6" t="s">
-        <v>191</v>
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="6" t="s">
-        <v>192</v>
+      <c r="A38" s="17"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" s="3"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="9" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="3"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D41" s="3"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="9" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D42" s="3"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="9" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D43" s="3"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44" s="3"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D45" s="3"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="9" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D46" s="3"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="9" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" s="3"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="9" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="17"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="17"/>
       <c r="B50" s="15"/>
-      <c r="C50" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="9" t="s">
-        <v>220</v>
+      <c r="C50" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="17"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="9" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A2:A66"/>
+  <mergeCells count="11">
+    <mergeCell ref="A2:A51"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B23:B34"/>
-    <mergeCell ref="C23:C33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B62"/>
-    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="C22:C30"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="B48:B51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
